--- a/downloads/notebooks/data/Plot1/LifeChart.xlsx
+++ b/downloads/notebooks/data/Plot1/LifeChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\Plot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -810,10 +810,10 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>United_States</t>
   </si>
   <si>
-    <t>United_States</t>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JE57"/>
+  <dimension ref="A1:JE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1195,7 @@
   <sheetData>
     <row r="1" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
         <v>190</v>
@@ -1945,7 +1945,7 @@
         <v>191</v>
       </c>
       <c r="IQ1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="IR1" t="s">
         <v>104</v>
@@ -42817,6 +42817,2128 @@
       </c>
       <c r="JE57">
         <v>60.279341463414646</v>
+      </c>
+    </row>
+    <row r="58" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B58">
+        <f>+B57*1.0001</f>
+        <v>75.601900897560981</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:BN59" si="1">+C57*1.0001</f>
+        <v>63.304524941463427</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>61.195460397560986</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>78.210966656097568</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>71.0355413799915</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>77.491992326829276</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>76.300653692682943</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>74.213615741463414</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>76.083241709756109</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>82.459464634146357</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>81.852086829268302</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>71.852379641463415</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="1"/>
+        <v>57.075048397560984</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>81.295933658536583</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>60.590741395121952</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>59.850643002439028</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>72.228831917073194</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="1"/>
+        <v>74.473300243902443</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="1"/>
+        <v>76.872881641463408</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="1"/>
+        <v>75.37631736585368</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="1"/>
+        <v>76.647956712195125</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="1"/>
+        <v>73.631752682926844</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="1"/>
+        <v>70.318006707317068</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="1"/>
+        <v>81.020296341463421</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="1"/>
+        <v>68.7566798585366</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="1"/>
+        <v>75.206641863414646</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="1"/>
+        <v>75.645466229268308</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="1"/>
+        <v>77.074462773170737</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="1"/>
+        <v>69.81410266341463</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="1"/>
+        <v>65.757672670731708</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="1"/>
+        <v>51.382991443902448</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="1"/>
+        <v>82.13723729268294</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="1"/>
+        <v>77.034609794204059</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="1"/>
+        <v>83.205880731707325</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" si="1"/>
+        <v>80.893356819512192</v>
+      </c>
+      <c r="AM58">
+        <f t="shared" si="1"/>
+        <v>79.168598995121968</v>
+      </c>
+      <c r="AN58">
+        <f t="shared" si="1"/>
+        <v>76.124709270731714</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="1"/>
+        <v>53.08355172682927</v>
+      </c>
+      <c r="AP58">
+        <f t="shared" si="1"/>
+        <v>57.563267946341469</v>
+      </c>
+      <c r="AQ58">
+        <f t="shared" si="1"/>
+        <v>59.179136834146348</v>
+      </c>
+      <c r="AR58">
+        <f t="shared" si="1"/>
+        <v>64.097140780487806</v>
+      </c>
+      <c r="AS58">
+        <f t="shared" si="1"/>
+        <v>74.163610741463401</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="1"/>
+        <v>63.467028995121957</v>
+      </c>
+      <c r="AU58">
+        <f t="shared" si="1"/>
+        <v>72.44241424878048</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="1"/>
+        <v>79.616863329268298</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="1"/>
+        <v>73.055405937034308</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="1"/>
+        <v>79.551661687804895</v>
+      </c>
+      <c r="AY58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <f t="shared" si="1"/>
+        <v>80.299077885365861</v>
+      </c>
+      <c r="BB58">
+        <f t="shared" si="1"/>
+        <v>79.481118048780502</v>
+      </c>
+      <c r="BC58">
+        <f t="shared" si="1"/>
+        <v>81.098352926829278</v>
+      </c>
+      <c r="BD58">
+        <f t="shared" si="1"/>
+        <v>62.256054251219517</v>
+      </c>
+      <c r="BE58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <f t="shared" si="1"/>
+        <v>81.108109999999996</v>
+      </c>
+      <c r="BG58">
+        <f t="shared" si="1"/>
+        <v>73.711053295121971</v>
+      </c>
+      <c r="BH58">
+        <f t="shared" si="1"/>
+        <v>75.862878212195142</v>
+      </c>
+      <c r="BI58">
+        <f t="shared" si="1"/>
+        <v>74.349264960147963</v>
+      </c>
+      <c r="BJ58">
+        <f t="shared" si="1"/>
+        <v>69.534742908516179</v>
+      </c>
+      <c r="BK58">
+        <f t="shared" si="1"/>
+        <v>75.263567262712556</v>
+      </c>
+      <c r="BL58">
+        <f t="shared" si="1"/>
+        <v>72.474138635269696</v>
+      </c>
+      <c r="BM58">
+        <f t="shared" si="1"/>
+        <v>77.402612385947393</v>
+      </c>
+      <c r="BN58">
+        <f t="shared" si="1"/>
+        <v>76.089120346341474</v>
+      </c>
+      <c r="BO58">
+        <f t="shared" ref="BO58:DZ59" si="2">+BO57*1.0001</f>
+        <v>71.302788102439024</v>
+      </c>
+      <c r="BP58">
+        <f t="shared" si="2"/>
+        <v>82.078428184450757</v>
+      </c>
+      <c r="BQ58">
+        <f t="shared" si="2"/>
+        <v>64.630852682926843</v>
+      </c>
+      <c r="BR58">
+        <f t="shared" si="2"/>
+        <v>83.388825853658545</v>
+      </c>
+      <c r="BS58">
+        <f t="shared" si="2"/>
+        <v>77.139420487804884</v>
+      </c>
+      <c r="BT58">
+        <f t="shared" si="2"/>
+        <v>65.014793512195126</v>
+      </c>
+      <c r="BU58">
+        <f t="shared" si="2"/>
+        <v>81.134505139925679</v>
+      </c>
+      <c r="BV58">
+        <f t="shared" si="2"/>
+        <v>62.055560289261351</v>
+      </c>
+      <c r="BW58">
+        <f t="shared" si="2"/>
+        <v>81.393504390243891</v>
+      </c>
+      <c r="BX58">
+        <f t="shared" si="2"/>
+        <v>70.231290719512202</v>
+      </c>
+      <c r="BY58">
+        <f t="shared" si="2"/>
+        <v>82.678998780487817</v>
+      </c>
+      <c r="BZ58">
+        <f t="shared" si="2"/>
+        <v>81.642309756097575</v>
+      </c>
+      <c r="CA58">
+        <f t="shared" si="2"/>
+        <v>69.053538809756105</v>
+      </c>
+      <c r="CB58">
+        <f t="shared" si="2"/>
+        <v>65.690983075609765</v>
+      </c>
+      <c r="CC58">
+        <f t="shared" si="2"/>
+        <v>81.613038536585378</v>
+      </c>
+      <c r="CD58">
+        <f t="shared" si="2"/>
+        <v>72.97341856341464</v>
+      </c>
+      <c r="CE58">
+        <f t="shared" si="2"/>
+        <v>62.413484626829273</v>
+      </c>
+      <c r="CF58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CG58">
+        <f t="shared" si="2"/>
+        <v>59.404891114634154</v>
+      </c>
+      <c r="CH58">
+        <f t="shared" si="2"/>
+        <v>60.963534768292682</v>
+      </c>
+      <c r="CI58">
+        <f t="shared" si="2"/>
+        <v>56.956085282926836</v>
+      </c>
+      <c r="CJ58">
+        <f t="shared" si="2"/>
+        <v>57.514141082926834</v>
+      </c>
+      <c r="CK58">
+        <f t="shared" si="2"/>
+        <v>81.59596365853659</v>
+      </c>
+      <c r="CL58">
+        <f t="shared" si="2"/>
+        <v>73.506886539024393</v>
+      </c>
+      <c r="CM58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CN58">
+        <f t="shared" si="2"/>
+        <v>73.050279907317076</v>
+      </c>
+      <c r="CO58">
+        <f t="shared" si="2"/>
+        <v>79.385571909756109</v>
+      </c>
+      <c r="CP58">
+        <f t="shared" si="2"/>
+        <v>66.546019790243918</v>
+      </c>
+      <c r="CQ58">
+        <f t="shared" si="2"/>
+        <v>80.749383821578405</v>
+      </c>
+      <c r="CR58">
+        <f t="shared" si="2"/>
+        <v>84.286476585365875</v>
+      </c>
+      <c r="CS58">
+        <f t="shared" si="2"/>
+        <v>73.331942217073177</v>
+      </c>
+      <c r="CT58">
+        <f t="shared" si="2"/>
+        <v>61.628524134243655</v>
+      </c>
+      <c r="CU58">
+        <f t="shared" si="2"/>
+        <v>77.28333731707319</v>
+      </c>
+      <c r="CV58">
+        <f t="shared" si="2"/>
+        <v>63.017081565853665</v>
+      </c>
+      <c r="CW58">
+        <f t="shared" si="2"/>
+        <v>75.968571707317096</v>
+      </c>
+      <c r="CX58">
+        <f t="shared" si="2"/>
+        <v>72.562695765701974</v>
+      </c>
+      <c r="CY58">
+        <f t="shared" si="2"/>
+        <v>70.255445126747361</v>
+      </c>
+      <c r="CZ58">
+        <f t="shared" si="2"/>
+        <v>63.281401014836476</v>
+      </c>
+      <c r="DA58">
+        <f t="shared" si="2"/>
+        <v>61.36446391310789</v>
+      </c>
+      <c r="DB58">
+        <f t="shared" si="2"/>
+        <v>69.0455380097561</v>
+      </c>
+      <c r="DC58">
+        <f t="shared" si="2"/>
+        <v>64.229416269900071</v>
+      </c>
+      <c r="DD58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DE58">
+        <f t="shared" si="2"/>
+        <v>68.339443017073179</v>
+      </c>
+      <c r="DF58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DG58">
+        <f t="shared" si="2"/>
+        <v>81.510589268292676</v>
+      </c>
+      <c r="DH58">
+        <f t="shared" si="2"/>
+        <v>75.750208409756112</v>
+      </c>
+      <c r="DI58">
+        <f t="shared" si="2"/>
+        <v>69.641573217073173</v>
+      </c>
+      <c r="DJ58">
+        <f t="shared" si="2"/>
+        <v>82.869261707317079</v>
+      </c>
+      <c r="DK58">
+        <f t="shared" si="2"/>
+        <v>82.059424634146339</v>
+      </c>
+      <c r="DL58">
+        <f t="shared" si="2"/>
+        <v>83.498592926829275</v>
+      </c>
+      <c r="DM58">
+        <f t="shared" si="2"/>
+        <v>75.814263595121957</v>
+      </c>
+      <c r="DN58">
+        <f t="shared" si="2"/>
+        <v>74.198443492682941</v>
+      </c>
+      <c r="DO58">
+        <f t="shared" si="2"/>
+        <v>83.852042902439038</v>
+      </c>
+      <c r="DP58">
+        <f t="shared" si="2"/>
+        <v>72.007199999999997</v>
+      </c>
+      <c r="DQ58">
+        <f t="shared" si="2"/>
+        <v>66.652323102439027</v>
+      </c>
+      <c r="DR58">
+        <f t="shared" si="2"/>
+        <v>70.658284634146341</v>
+      </c>
+      <c r="DS58">
+        <f t="shared" si="2"/>
+        <v>68.478895985365853</v>
+      </c>
+      <c r="DT58">
+        <f t="shared" si="2"/>
+        <v>66.05880034146341</v>
+      </c>
+      <c r="DU58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DV58">
+        <f t="shared" si="2"/>
+        <v>82.164069243902432</v>
+      </c>
+      <c r="DW58">
+        <f t="shared" si="2"/>
+        <v>74.754303951219512</v>
+      </c>
+      <c r="DX58">
+        <f t="shared" si="2"/>
+        <v>75.137909234024846</v>
+      </c>
+      <c r="DY58">
+        <f t="shared" si="2"/>
+        <v>66.290677185365851</v>
+      </c>
+      <c r="DZ58">
+        <f t="shared" si="2"/>
+        <v>79.506193726829281</v>
+      </c>
+      <c r="EA58">
+        <f t="shared" ref="EA58:GL59" si="3">+EA57*1.0001</f>
+        <v>61.986417534146348</v>
+      </c>
+      <c r="EB58">
+        <f t="shared" si="3"/>
+        <v>71.837573282926826</v>
+      </c>
+      <c r="EC58">
+        <f t="shared" si="3"/>
+        <v>75.291040546341478</v>
+      </c>
+      <c r="ED58">
+        <f t="shared" si="3"/>
+        <v>75.278735856776478</v>
+      </c>
+      <c r="EE58">
+        <f t="shared" si="3"/>
+        <v>64.071088367984046</v>
+      </c>
+      <c r="EF58">
+        <f t="shared" si="3"/>
+        <v>62.0666804315305</v>
+      </c>
+      <c r="EG58">
+        <f t="shared" si="3"/>
+        <v>82.081378048780493</v>
+      </c>
+      <c r="EH58">
+        <f t="shared" si="3"/>
+        <v>74.996450114634158</v>
+      </c>
+      <c r="EI58">
+        <f t="shared" si="3"/>
+        <v>67.711948219051337</v>
+      </c>
+      <c r="EJ58">
+        <f t="shared" si="3"/>
+        <v>70.200280359794377</v>
+      </c>
+      <c r="EK58">
+        <f t="shared" si="3"/>
+        <v>53.575454570731715</v>
+      </c>
+      <c r="EL58">
+        <f t="shared" si="3"/>
+        <v>75.530434637284088</v>
+      </c>
+      <c r="EM58">
+        <f t="shared" si="3"/>
+        <v>75.127024146341469</v>
+      </c>
+      <c r="EN58">
+        <f t="shared" si="3"/>
+        <v>82.237491219512194</v>
+      </c>
+      <c r="EO58">
+        <f t="shared" si="3"/>
+        <v>74.131802682926832</v>
+      </c>
+      <c r="EP58">
+        <f t="shared" si="3"/>
+        <v>83.603261929268299</v>
+      </c>
+      <c r="EQ58">
+        <f t="shared" si="3"/>
+        <v>79.478678780487797</v>
+      </c>
+      <c r="ER58">
+        <f t="shared" si="3"/>
+        <v>75.527698356097574</v>
+      </c>
+      <c r="ES58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ET58">
+        <f t="shared" si="3"/>
+        <v>71.378356634146343</v>
+      </c>
+      <c r="EU58">
+        <f t="shared" si="3"/>
+        <v>65.514380051219518</v>
+      </c>
+      <c r="EV58">
+        <f t="shared" si="3"/>
+        <v>77.127980319512204</v>
+      </c>
+      <c r="EW58">
+        <f t="shared" si="3"/>
+        <v>73.329747699716961</v>
+      </c>
+      <c r="EX58">
+        <f t="shared" si="3"/>
+        <v>76.889053990243909</v>
+      </c>
+      <c r="EY58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EZ58">
+        <f t="shared" si="3"/>
+        <v>71.144296094216756</v>
+      </c>
+      <c r="FA58">
+        <f t="shared" si="3"/>
+        <v>75.53186950487806</v>
+      </c>
+      <c r="FB58">
+        <f t="shared" si="3"/>
+        <v>57.463453087804879</v>
+      </c>
+      <c r="FC58">
+        <f t="shared" si="3"/>
+        <v>81.954536097560975</v>
+      </c>
+      <c r="FD58">
+        <f t="shared" si="3"/>
+        <v>66.392272709756114</v>
+      </c>
+      <c r="FE58">
+        <f t="shared" si="3"/>
+        <v>72.80265034157803</v>
+      </c>
+      <c r="FF58">
+        <f t="shared" si="3"/>
+        <v>76.872003504878052</v>
+      </c>
+      <c r="FG58">
+        <f t="shared" si="3"/>
+        <v>69.122789636585367</v>
+      </c>
+      <c r="FH58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FI58">
+        <f t="shared" si="3"/>
+        <v>57.615029219512195</v>
+      </c>
+      <c r="FJ58">
+        <f t="shared" si="3"/>
+        <v>63.052670490243898</v>
+      </c>
+      <c r="FK58">
+        <f t="shared" si="3"/>
+        <v>74.360606048780497</v>
+      </c>
+      <c r="FL58">
+        <f t="shared" si="3"/>
+        <v>62.549620190243907</v>
+      </c>
+      <c r="FM58">
+        <f t="shared" si="3"/>
+        <v>75.22771714146343</v>
+      </c>
+      <c r="FN58">
+        <f t="shared" si="3"/>
+        <v>79.090133739357654</v>
+      </c>
+      <c r="FO58">
+        <f t="shared" si="3"/>
+        <v>63.642802668292688</v>
+      </c>
+      <c r="FP58">
+        <f t="shared" si="3"/>
+        <v>77.780948048780488</v>
+      </c>
+      <c r="FQ58">
+        <f t="shared" si="3"/>
+        <v>59.687846236585365</v>
+      </c>
+      <c r="FR58">
+        <f t="shared" si="3"/>
+        <v>52.983224621951223</v>
+      </c>
+      <c r="FS58">
+        <f t="shared" si="3"/>
+        <v>75.045503800000006</v>
+      </c>
+      <c r="FT58">
+        <f t="shared" si="3"/>
+        <v>81.715487804878052</v>
+      </c>
+      <c r="FU58">
+        <f t="shared" si="3"/>
+        <v>82.10821</v>
+      </c>
+      <c r="FV58">
+        <f t="shared" si="3"/>
+        <v>69.876840643902455</v>
+      </c>
+      <c r="FW58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FX58">
+        <f t="shared" si="3"/>
+        <v>81.464974951219517</v>
+      </c>
+      <c r="FY58">
+        <f t="shared" si="3"/>
+        <v>80.2911523049533</v>
+      </c>
+      <c r="FZ58">
+        <f t="shared" si="3"/>
+        <v>77.129541451219509</v>
+      </c>
+      <c r="GA58">
+        <f t="shared" si="3"/>
+        <v>67.337862142738047</v>
+      </c>
+      <c r="GB58">
+        <f t="shared" si="3"/>
+        <v>66.338803948780495</v>
+      </c>
+      <c r="GC58">
+        <f t="shared" si="3"/>
+        <v>77.825220768292695</v>
+      </c>
+      <c r="GD58">
+        <f t="shared" si="3"/>
+        <v>74.720885975609761</v>
+      </c>
+      <c r="GE58">
+        <f t="shared" si="3"/>
+        <v>69.016754643902445</v>
+      </c>
+      <c r="GF58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GG58">
+        <f t="shared" si="3"/>
+        <v>65.394246087804888</v>
+      </c>
+      <c r="GH58">
+        <f t="shared" si="3"/>
+        <v>78.212698536585364</v>
+      </c>
+      <c r="GI58">
+        <f t="shared" si="3"/>
+        <v>59.508760502974923</v>
+      </c>
+      <c r="GJ58">
+        <f t="shared" si="3"/>
+        <v>79.604081563414653</v>
+      </c>
+      <c r="GK58">
+        <f t="shared" si="3"/>
+        <v>71.24587997317073</v>
+      </c>
+      <c r="GL58">
+        <f t="shared" si="3"/>
+        <v>81.530103414634155</v>
+      </c>
+      <c r="GM58">
+        <f t="shared" ref="GM58:IX59" si="4">+GM57*1.0001</f>
+        <v>73.050279907317076</v>
+      </c>
+      <c r="GN58">
+        <f t="shared" si="4"/>
+        <v>73.309013095121955</v>
+      </c>
+      <c r="GO58">
+        <f t="shared" si="4"/>
+        <v>70.759617276845859</v>
+      </c>
+      <c r="GP58">
+        <f t="shared" si="4"/>
+        <v>80.654526989018464</v>
+      </c>
+      <c r="GQ58">
+        <f t="shared" si="4"/>
+        <v>76.699181346341476</v>
+      </c>
+      <c r="GR58">
+        <f t="shared" si="4"/>
+        <v>78.470553587804872</v>
+      </c>
+      <c r="GS58">
+        <f t="shared" si="4"/>
+        <v>74.968471707317093</v>
+      </c>
+      <c r="GT58">
+        <f t="shared" si="4"/>
+        <v>70.915627439024405</v>
+      </c>
+      <c r="GU58">
+        <f t="shared" si="4"/>
+        <v>66.627540136585381</v>
+      </c>
+      <c r="GV58">
+        <f t="shared" si="4"/>
+        <v>68.492301520982366</v>
+      </c>
+      <c r="GW58">
+        <f t="shared" si="4"/>
+        <v>74.581945253658546</v>
+      </c>
+      <c r="GX58">
+        <f t="shared" si="4"/>
+        <v>64.235837575609764</v>
+      </c>
+      <c r="GY58">
+        <f t="shared" si="4"/>
+        <v>66.668105168292698</v>
+      </c>
+      <c r="GZ58">
+        <f t="shared" si="4"/>
+        <v>82.603381463414649</v>
+      </c>
+      <c r="HA58">
+        <f t="shared" si="4"/>
+        <v>70.483730595121955</v>
+      </c>
+      <c r="HB58">
+        <f t="shared" si="4"/>
+        <v>51.417994943902443</v>
+      </c>
+      <c r="HC58">
+        <f t="shared" si="4"/>
+        <v>73.010397870731708</v>
+      </c>
+      <c r="HD58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HE58">
+        <f t="shared" si="4"/>
+        <v>55.878440943902454</v>
+      </c>
+      <c r="HF58">
+        <f t="shared" si="4"/>
+        <v>75.495353658536601</v>
+      </c>
+      <c r="HG58">
+        <f t="shared" si="4"/>
+        <v>59.906577912540087</v>
+      </c>
+      <c r="HH58">
+        <f t="shared" si="4"/>
+        <v>56.308215624390243</v>
+      </c>
+      <c r="HI58">
+        <f t="shared" si="4"/>
+        <v>59.907816290297561</v>
+      </c>
+      <c r="HJ58">
+        <f t="shared" si="4"/>
+        <v>68.584071883611529</v>
+      </c>
+      <c r="HK58">
+        <f t="shared" si="4"/>
+        <v>66.423300202439037</v>
+      </c>
+      <c r="HL58">
+        <f t="shared" si="4"/>
+        <v>71.293323741463439</v>
+      </c>
+      <c r="HM58">
+        <f t="shared" si="4"/>
+        <v>77.219916341463431</v>
+      </c>
+      <c r="HN58">
+        <f t="shared" si="4"/>
+        <v>81.086156585365856</v>
+      </c>
+      <c r="HO58">
+        <f t="shared" si="4"/>
+        <v>82.559474634146341</v>
+      </c>
+      <c r="HP58">
+        <f t="shared" si="4"/>
+        <v>56.918057090243913</v>
+      </c>
+      <c r="HQ58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HR58">
+        <f t="shared" si="4"/>
+        <v>73.236591219512192</v>
+      </c>
+      <c r="HS58">
+        <f t="shared" si="4"/>
+        <v>70.259683802439028</v>
+      </c>
+      <c r="HT58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HU58">
+        <f t="shared" si="4"/>
+        <v>52.559206614634149</v>
+      </c>
+      <c r="HV58">
+        <f t="shared" si="4"/>
+        <v>74.388218073538297</v>
+      </c>
+      <c r="HW58">
+        <f t="shared" si="4"/>
+        <v>72.955387015911001</v>
+      </c>
+      <c r="HX58">
+        <f t="shared" si="4"/>
+        <v>59.929699687804884</v>
+      </c>
+      <c r="HY58">
+        <f t="shared" si="4"/>
+        <v>75.075506799999999</v>
+      </c>
+      <c r="HZ58">
+        <f t="shared" si="4"/>
+        <v>71.014222663414643</v>
+      </c>
+      <c r="IA58">
+        <f t="shared" si="4"/>
+        <v>67.647812885365852</v>
+      </c>
+      <c r="IB58">
+        <f t="shared" si="4"/>
+        <v>75.173358415093929</v>
+      </c>
+      <c r="IC58">
+        <f t="shared" si="4"/>
+        <v>68.586882392682938</v>
+      </c>
+      <c r="ID58">
+        <f t="shared" si="4"/>
+        <v>72.796482184662324</v>
+      </c>
+      <c r="IE58">
+        <f t="shared" si="4"/>
+        <v>72.847454748780493</v>
+      </c>
+      <c r="IF58">
+        <f t="shared" si="4"/>
+        <v>68.492301520982366</v>
+      </c>
+      <c r="IG58">
+        <f t="shared" si="4"/>
+        <v>59.907816290297554</v>
+      </c>
+      <c r="IH58">
+        <f t="shared" si="4"/>
+        <v>70.595912543902443</v>
+      </c>
+      <c r="II58">
+        <f t="shared" si="4"/>
+        <v>75.504598485365861</v>
+      </c>
+      <c r="IJ58">
+        <f t="shared" si="4"/>
+        <v>75.414638270731714</v>
+      </c>
+      <c r="IK58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IL58">
+        <f t="shared" si="4"/>
+        <v>64.909807404878052</v>
+      </c>
+      <c r="IM58">
+        <f t="shared" si="4"/>
+        <v>59.514706973170739</v>
+      </c>
+      <c r="IN58">
+        <f t="shared" si="4"/>
+        <v>71.196631146341474</v>
+      </c>
+      <c r="IO58">
+        <f t="shared" si="4"/>
+        <v>75.126061531746387</v>
+      </c>
+      <c r="IP58">
+        <f t="shared" si="4"/>
+        <v>77.139347309756118</v>
+      </c>
+      <c r="IQ58">
+        <f t="shared" si="4"/>
+        <v>78.749337560975619</v>
+      </c>
+      <c r="IR58">
+        <f t="shared" si="4"/>
+        <v>71.152797495121959</v>
+      </c>
+      <c r="IS58">
+        <f t="shared" si="4"/>
+        <v>73.072257714634162</v>
+      </c>
+      <c r="IT58">
+        <f t="shared" si="4"/>
+        <v>74.398951346341477</v>
+      </c>
+      <c r="IU58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IV58">
+        <f t="shared" si="4"/>
+        <v>79.881158048780506</v>
+      </c>
+      <c r="IW58">
+        <f t="shared" si="4"/>
+        <v>75.898784241463417</v>
+      </c>
+      <c r="IX58">
+        <f t="shared" si="4"/>
+        <v>71.992100929268304</v>
+      </c>
+      <c r="IY58">
+        <f t="shared" ref="IY58:JE59" si="5">+IY57*1.0001</f>
+        <v>71.895993092115077</v>
+      </c>
+      <c r="IZ58">
+        <f t="shared" si="5"/>
+        <v>74.846191187804891</v>
+      </c>
+      <c r="JA58">
+        <f t="shared" si="5"/>
+        <v>71.353476097560971</v>
+      </c>
+      <c r="JB58">
+        <f t="shared" si="5"/>
+        <v>64.732155495121958</v>
+      </c>
+      <c r="JC58">
+        <f t="shared" si="5"/>
+        <v>61.940290970731709</v>
+      </c>
+      <c r="JD58">
+        <f t="shared" si="5"/>
+        <v>61.345719324390252</v>
+      </c>
+      <c r="JE58">
+        <f t="shared" si="5"/>
+        <v>60.285369397560984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B59">
+        <f>+B58*1.0001</f>
+        <v>75.609461087650729</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>63.310855393957574</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>61.201579943600741</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>78.218787752763177</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>71.042644934129498</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>77.499741526061953</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>76.308283758052212</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>74.22103710303756</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>76.090850033927083</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>82.467710580609776</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>81.860272037951233</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>71.859564879427566</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="1"/>
+        <v>57.080755902400739</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>81.304063251902434</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>60.596800469261467</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="1"/>
+        <v>59.856628066739269</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="1"/>
+        <v>72.236054800264895</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="1"/>
+        <v>74.480747573926834</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>76.880568929627557</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="1"/>
+        <v>75.383854997590262</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="1"/>
+        <v>76.655621507866343</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="1"/>
+        <v>73.63911585819514</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="1"/>
+        <v>70.325038507987799</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="1"/>
+        <v>81.028398371097566</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="1"/>
+        <v>68.763555526522453</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="1"/>
+        <v>75.21416252760099</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="1"/>
+        <v>75.653030775891239</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="1"/>
+        <v>77.082170219448059</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="1"/>
+        <v>69.821084073680964</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="1"/>
+        <v>65.764248437998774</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="1"/>
+        <v>51.388129743046839</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="1"/>
+        <v>82.14545101641221</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="1"/>
+        <v>77.042313255183473</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="1"/>
+        <v>83.2142013197805</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="1"/>
+        <v>80.901446155194137</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" si="1"/>
+        <v>79.176515855021478</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="1"/>
+        <v>76.132321741658785</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="1"/>
+        <v>53.088860082001951</v>
+      </c>
+      <c r="AP59">
+        <f t="shared" si="1"/>
+        <v>57.569024273136101</v>
+      </c>
+      <c r="AQ59">
+        <f t="shared" si="1"/>
+        <v>59.18505474782976</v>
+      </c>
+      <c r="AR59">
+        <f t="shared" si="1"/>
+        <v>64.103550494565852</v>
+      </c>
+      <c r="AS59">
+        <f t="shared" si="1"/>
+        <v>74.17102710253755</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="1"/>
+        <v>63.473375698021471</v>
+      </c>
+      <c r="AU59">
+        <f t="shared" si="1"/>
+        <v>72.449658490205351</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="1"/>
+        <v>79.624825015601218</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="1"/>
+        <v>73.062711477628014</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="1"/>
+        <v>79.559616853973679</v>
+      </c>
+      <c r="AY59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <f t="shared" si="1"/>
+        <v>80.307107793154401</v>
+      </c>
+      <c r="BB59">
+        <f t="shared" si="1"/>
+        <v>79.489066160585381</v>
+      </c>
+      <c r="BC59">
+        <f t="shared" si="1"/>
+        <v>81.106462762121964</v>
+      </c>
+      <c r="BD59">
+        <f t="shared" si="1"/>
+        <v>62.262279856644639</v>
+      </c>
+      <c r="BE59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <f t="shared" si="1"/>
+        <v>81.116220810999991</v>
+      </c>
+      <c r="BG59">
+        <f t="shared" si="1"/>
+        <v>73.718424400451482</v>
+      </c>
+      <c r="BH59">
+        <f t="shared" si="1"/>
+        <v>75.870464500016354</v>
+      </c>
+      <c r="BI59">
+        <f t="shared" si="1"/>
+        <v>74.35669988664398</v>
+      </c>
+      <c r="BJ59">
+        <f t="shared" si="1"/>
+        <v>69.541696382807032</v>
+      </c>
+      <c r="BK59">
+        <f t="shared" si="1"/>
+        <v>75.27109361943883</v>
+      </c>
+      <c r="BL59">
+        <f t="shared" si="1"/>
+        <v>72.481386049133221</v>
+      </c>
+      <c r="BM59">
+        <f t="shared" si="1"/>
+        <v>77.410352647185988</v>
+      </c>
+      <c r="BN59">
+        <f t="shared" si="1"/>
+        <v>76.096729258376101</v>
+      </c>
+      <c r="BO59">
+        <f t="shared" si="2"/>
+        <v>71.309918381249261</v>
+      </c>
+      <c r="BP59">
+        <f t="shared" si="2"/>
+        <v>82.086636027269208</v>
+      </c>
+      <c r="BQ59">
+        <f t="shared" si="2"/>
+        <v>64.637315768195137</v>
+      </c>
+      <c r="BR59">
+        <f t="shared" si="2"/>
+        <v>83.397164736243909</v>
+      </c>
+      <c r="BS59">
+        <f t="shared" si="2"/>
+        <v>77.147134429853665</v>
+      </c>
+      <c r="BT59">
+        <f t="shared" si="2"/>
+        <v>65.021294991546341</v>
+      </c>
+      <c r="BU59">
+        <f t="shared" si="2"/>
+        <v>81.142618590439668</v>
+      </c>
+      <c r="BV59">
+        <f t="shared" si="2"/>
+        <v>62.061765845290275</v>
+      </c>
+      <c r="BW59">
+        <f t="shared" si="2"/>
+        <v>81.401643740682914</v>
+      </c>
+      <c r="BX59">
+        <f t="shared" si="2"/>
+        <v>70.238313848584156</v>
+      </c>
+      <c r="BY59">
+        <f t="shared" si="2"/>
+        <v>82.687266680365866</v>
+      </c>
+      <c r="BZ59">
+        <f t="shared" si="2"/>
+        <v>81.650473987073184</v>
+      </c>
+      <c r="CA59">
+        <f t="shared" si="2"/>
+        <v>69.060444163637086</v>
+      </c>
+      <c r="CB59">
+        <f t="shared" si="2"/>
+        <v>65.69755217391733</v>
+      </c>
+      <c r="CC59">
+        <f t="shared" si="2"/>
+        <v>81.621199840439033</v>
+      </c>
+      <c r="CD59">
+        <f t="shared" si="2"/>
+        <v>72.980715905270984</v>
+      </c>
+      <c r="CE59">
+        <f t="shared" si="2"/>
+        <v>62.419725975291954</v>
+      </c>
+      <c r="CF59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CG59">
+        <f t="shared" si="2"/>
+        <v>59.410831603745613</v>
+      </c>
+      <c r="CH59">
+        <f t="shared" si="2"/>
+        <v>60.96963112176951</v>
+      </c>
+      <c r="CI59">
+        <f t="shared" si="2"/>
+        <v>56.961780891455128</v>
+      </c>
+      <c r="CJ59">
+        <f t="shared" si="2"/>
+        <v>57.519892497035123</v>
+      </c>
+      <c r="CK59">
+        <f t="shared" si="2"/>
+        <v>81.604123254902447</v>
+      </c>
+      <c r="CL59">
+        <f t="shared" si="2"/>
+        <v>73.514237227678294</v>
+      </c>
+      <c r="CM59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="CN59">
+        <f t="shared" si="2"/>
+        <v>73.057584935307801</v>
+      </c>
+      <c r="CO59">
+        <f t="shared" si="2"/>
+        <v>79.393510466947077</v>
+      </c>
+      <c r="CP59">
+        <f t="shared" si="2"/>
+        <v>66.55267439222294</v>
+      </c>
+      <c r="CQ59">
+        <f t="shared" si="2"/>
+        <v>80.757458759960556</v>
+      </c>
+      <c r="CR59">
+        <f t="shared" si="2"/>
+        <v>84.294905233024409</v>
+      </c>
+      <c r="CS59">
+        <f t="shared" si="2"/>
+        <v>73.339275411294878</v>
+      </c>
+      <c r="CT59">
+        <f t="shared" si="2"/>
+        <v>61.63468698665708</v>
+      </c>
+      <c r="CU59">
+        <f t="shared" si="2"/>
+        <v>77.291065650804896</v>
+      </c>
+      <c r="CV59">
+        <f t="shared" si="2"/>
+        <v>63.02338327401025</v>
+      </c>
+      <c r="CW59">
+        <f t="shared" si="2"/>
+        <v>75.976168564487821</v>
+      </c>
+      <c r="CX59">
+        <f t="shared" si="2"/>
+        <v>72.569952035278547</v>
+      </c>
+      <c r="CY59">
+        <f t="shared" si="2"/>
+        <v>70.262470671260033</v>
+      </c>
+      <c r="CZ59">
+        <f t="shared" si="2"/>
+        <v>63.287729154937956</v>
+      </c>
+      <c r="DA59">
+        <f t="shared" si="2"/>
+        <v>61.3706003594992</v>
+      </c>
+      <c r="DB59">
+        <f t="shared" si="2"/>
+        <v>69.052442563557079</v>
+      </c>
+      <c r="DC59">
+        <f t="shared" si="2"/>
+        <v>64.235839211527065</v>
+      </c>
+      <c r="DD59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DE59">
+        <f t="shared" si="2"/>
+        <v>68.346276961374883</v>
+      </c>
+      <c r="DF59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DG59">
+        <f t="shared" si="2"/>
+        <v>81.518740327219504</v>
+      </c>
+      <c r="DH59">
+        <f t="shared" si="2"/>
+        <v>75.757783430597087</v>
+      </c>
+      <c r="DI59">
+        <f t="shared" si="2"/>
+        <v>69.648537374394877</v>
+      </c>
+      <c r="DJ59">
+        <f t="shared" si="2"/>
+        <v>82.877548633487805</v>
+      </c>
+      <c r="DK59">
+        <f t="shared" si="2"/>
+        <v>82.067630576609758</v>
+      </c>
+      <c r="DL59">
+        <f t="shared" si="2"/>
+        <v>83.506942786121954</v>
+      </c>
+      <c r="DM59">
+        <f t="shared" si="2"/>
+        <v>75.821845021481465</v>
+      </c>
+      <c r="DN59">
+        <f t="shared" si="2"/>
+        <v>74.205863337032213</v>
+      </c>
+      <c r="DO59">
+        <f t="shared" si="2"/>
+        <v>83.860428106729287</v>
+      </c>
+      <c r="DP59">
+        <f t="shared" si="2"/>
+        <v>72.014400719999998</v>
+      </c>
+      <c r="DQ59">
+        <f t="shared" si="2"/>
+        <v>66.658988334749267</v>
+      </c>
+      <c r="DR59">
+        <f t="shared" si="2"/>
+        <v>70.665350462609752</v>
+      </c>
+      <c r="DS59">
+        <f t="shared" si="2"/>
+        <v>68.485743874964385</v>
+      </c>
+      <c r="DT59">
+        <f t="shared" si="2"/>
+        <v>66.065406221497554</v>
+      </c>
+      <c r="DU59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="DV59">
+        <f t="shared" si="2"/>
+        <v>82.172285650826822</v>
+      </c>
+      <c r="DW59">
+        <f t="shared" si="2"/>
+        <v>74.76177938161463</v>
+      </c>
+      <c r="DX59">
+        <f t="shared" si="2"/>
+        <v>75.145423024948244</v>
+      </c>
+      <c r="DY59">
+        <f t="shared" si="2"/>
+        <v>66.297306253084386</v>
+      </c>
+      <c r="DZ59">
+        <f t="shared" si="2"/>
+        <v>79.514144346201959</v>
+      </c>
+      <c r="EA59">
+        <f t="shared" si="3"/>
+        <v>61.992616175899762</v>
+      </c>
+      <c r="EB59">
+        <f t="shared" si="3"/>
+        <v>71.844757040255118</v>
+      </c>
+      <c r="EC59">
+        <f t="shared" si="3"/>
+        <v>75.298569650396118</v>
+      </c>
+      <c r="ED59">
+        <f t="shared" si="3"/>
+        <v>75.286263730362151</v>
+      </c>
+      <c r="EE59">
+        <f t="shared" si="3"/>
+        <v>64.077495476820843</v>
+      </c>
+      <c r="EF59">
+        <f t="shared" si="3"/>
+        <v>62.072887099573656</v>
+      </c>
+      <c r="EG59">
+        <f t="shared" si="3"/>
+        <v>82.089586186585365</v>
+      </c>
+      <c r="EH59">
+        <f t="shared" si="3"/>
+        <v>75.003949759645621</v>
+      </c>
+      <c r="EI59">
+        <f t="shared" si="3"/>
+        <v>67.718719413873245</v>
+      </c>
+      <c r="EJ59">
+        <f t="shared" si="3"/>
+        <v>70.207300387830358</v>
+      </c>
+      <c r="EK59">
+        <f t="shared" si="3"/>
+        <v>53.580812116188788</v>
+      </c>
+      <c r="EL59">
+        <f t="shared" si="3"/>
+        <v>75.537987680747818</v>
+      </c>
+      <c r="EM59">
+        <f t="shared" si="3"/>
+        <v>75.134536848756099</v>
+      </c>
+      <c r="EN59">
+        <f t="shared" si="3"/>
+        <v>82.245714968634147</v>
+      </c>
+      <c r="EO59">
+        <f t="shared" si="3"/>
+        <v>74.139215863195119</v>
+      </c>
+      <c r="EP59">
+        <f t="shared" si="3"/>
+        <v>83.611622255461228</v>
+      </c>
+      <c r="EQ59">
+        <f t="shared" si="3"/>
+        <v>79.486626648365842</v>
+      </c>
+      <c r="ER59">
+        <f t="shared" si="3"/>
+        <v>75.535251125933186</v>
+      </c>
+      <c r="ES59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ET59">
+        <f t="shared" si="3"/>
+        <v>71.385494469809757</v>
+      </c>
+      <c r="EU59">
+        <f t="shared" si="3"/>
+        <v>65.520931489224637</v>
+      </c>
+      <c r="EV59">
+        <f t="shared" si="3"/>
+        <v>77.13569311754415</v>
+      </c>
+      <c r="EW59">
+        <f t="shared" si="3"/>
+        <v>73.337080674486927</v>
+      </c>
+      <c r="EX59">
+        <f t="shared" si="3"/>
+        <v>76.89674289564293</v>
+      </c>
+      <c r="EY59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="EZ59">
+        <f t="shared" si="3"/>
+        <v>71.151410523826172</v>
+      </c>
+      <c r="FA59">
+        <f t="shared" si="3"/>
+        <v>75.539422691828548</v>
+      </c>
+      <c r="FB59">
+        <f t="shared" si="3"/>
+        <v>57.469199433113658</v>
+      </c>
+      <c r="FC59">
+        <f t="shared" si="3"/>
+        <v>81.962731551170734</v>
+      </c>
+      <c r="FD59">
+        <f t="shared" si="3"/>
+        <v>66.398911937027094</v>
+      </c>
+      <c r="FE59">
+        <f t="shared" si="3"/>
+        <v>72.809930606612184</v>
+      </c>
+      <c r="FF59">
+        <f t="shared" si="3"/>
+        <v>76.879690705228541</v>
+      </c>
+      <c r="FG59">
+        <f t="shared" si="3"/>
+        <v>69.12970191554902</v>
+      </c>
+      <c r="FH59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FI59">
+        <f t="shared" si="3"/>
+        <v>57.620790722434144</v>
+      </c>
+      <c r="FJ59">
+        <f t="shared" si="3"/>
+        <v>63.05897575729292</v>
+      </c>
+      <c r="FK59">
+        <f t="shared" si="3"/>
+        <v>74.368042109385371</v>
+      </c>
+      <c r="FL59">
+        <f t="shared" si="3"/>
+        <v>62.555875152262928</v>
+      </c>
+      <c r="FM59">
+        <f t="shared" si="3"/>
+        <v>75.23523991317758</v>
+      </c>
+      <c r="FN59">
+        <f t="shared" si="3"/>
+        <v>79.098042752731587</v>
+      </c>
+      <c r="FO59">
+        <f t="shared" si="3"/>
+        <v>63.649166948559518</v>
+      </c>
+      <c r="FP59">
+        <f t="shared" si="3"/>
+        <v>77.788726143585365</v>
+      </c>
+      <c r="FQ59">
+        <f t="shared" si="3"/>
+        <v>59.693815021209026</v>
+      </c>
+      <c r="FR59">
+        <f t="shared" si="3"/>
+        <v>52.988522944413418</v>
+      </c>
+      <c r="FS59">
+        <f t="shared" si="3"/>
+        <v>75.053008350380011</v>
+      </c>
+      <c r="FT59">
+        <f t="shared" si="3"/>
+        <v>81.723659353658533</v>
+      </c>
+      <c r="FU59">
+        <f t="shared" si="3"/>
+        <v>82.116420821000006</v>
+      </c>
+      <c r="FV59">
+        <f t="shared" si="3"/>
+        <v>69.883828327966839</v>
+      </c>
+      <c r="FW59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="FX59">
+        <f t="shared" si="3"/>
+        <v>81.473121448714636</v>
+      </c>
+      <c r="FY59">
+        <f t="shared" si="3"/>
+        <v>80.2991814201838</v>
+      </c>
+      <c r="FZ59">
+        <f t="shared" si="3"/>
+        <v>77.137254405364629</v>
+      </c>
+      <c r="GA59">
+        <f t="shared" si="3"/>
+        <v>67.344595928952316</v>
+      </c>
+      <c r="GB59">
+        <f t="shared" si="3"/>
+        <v>66.345437829175367</v>
+      </c>
+      <c r="GC59">
+        <f t="shared" si="3"/>
+        <v>77.833003290369518</v>
+      </c>
+      <c r="GD59">
+        <f t="shared" si="3"/>
+        <v>74.728358064207328</v>
+      </c>
+      <c r="GE59">
+        <f t="shared" si="3"/>
+        <v>69.023656319366836</v>
+      </c>
+      <c r="GF59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GG59">
+        <f t="shared" si="3"/>
+        <v>65.400785512413663</v>
+      </c>
+      <c r="GH59">
+        <f t="shared" si="3"/>
+        <v>78.220519806439029</v>
+      </c>
+      <c r="GI59">
+        <f t="shared" si="3"/>
+        <v>59.514711379025222</v>
+      </c>
+      <c r="GJ59">
+        <f t="shared" si="3"/>
+        <v>79.612041971570989</v>
+      </c>
+      <c r="GK59">
+        <f t="shared" si="3"/>
+        <v>71.253004561168041</v>
+      </c>
+      <c r="GL59">
+        <f t="shared" si="3"/>
+        <v>81.538256424975614</v>
+      </c>
+      <c r="GM59">
+        <f t="shared" si="4"/>
+        <v>73.057584935307801</v>
+      </c>
+      <c r="GN59">
+        <f t="shared" si="4"/>
+        <v>73.31634399643147</v>
+      </c>
+      <c r="GO59">
+        <f t="shared" si="4"/>
+        <v>70.766693238573538</v>
+      </c>
+      <c r="GP59">
+        <f t="shared" si="4"/>
+        <v>80.662592441717365</v>
+      </c>
+      <c r="GQ59">
+        <f t="shared" si="4"/>
+        <v>76.706851264476114</v>
+      </c>
+      <c r="GR59">
+        <f t="shared" si="4"/>
+        <v>78.478400643163653</v>
+      </c>
+      <c r="GS59">
+        <f t="shared" si="4"/>
+        <v>74.975968554487821</v>
+      </c>
+      <c r="GT59">
+        <f t="shared" si="4"/>
+        <v>70.9227190017683</v>
+      </c>
+      <c r="GU59">
+        <f t="shared" si="4"/>
+        <v>66.634202890599042</v>
+      </c>
+      <c r="GV59">
+        <f t="shared" si="4"/>
+        <v>68.499150751134465</v>
+      </c>
+      <c r="GW59">
+        <f t="shared" si="4"/>
+        <v>74.589403448183916</v>
+      </c>
+      <c r="GX59">
+        <f t="shared" si="4"/>
+        <v>64.242261159367331</v>
+      </c>
+      <c r="GY59">
+        <f t="shared" si="4"/>
+        <v>66.674771978809531</v>
+      </c>
+      <c r="GZ59">
+        <f t="shared" si="4"/>
+        <v>82.611641801560992</v>
+      </c>
+      <c r="HA59">
+        <f t="shared" si="4"/>
+        <v>70.490778968181459</v>
+      </c>
+      <c r="HB59">
+        <f t="shared" si="4"/>
+        <v>51.423136743396832</v>
+      </c>
+      <c r="HC59">
+        <f t="shared" si="4"/>
+        <v>73.017698910518774</v>
+      </c>
+      <c r="HD59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HE59">
+        <f t="shared" si="4"/>
+        <v>55.884028787996847</v>
+      </c>
+      <c r="HF59">
+        <f t="shared" si="4"/>
+        <v>75.502903193902455</v>
+      </c>
+      <c r="HG59">
+        <f t="shared" si="4"/>
+        <v>59.912568570331338</v>
+      </c>
+      <c r="HH59">
+        <f t="shared" si="4"/>
+        <v>56.313846445952684</v>
+      </c>
+      <c r="HI59">
+        <f t="shared" si="4"/>
+        <v>59.913807071926591</v>
+      </c>
+      <c r="HJ59">
+        <f t="shared" si="4"/>
+        <v>68.590930290799889</v>
+      </c>
+      <c r="HK59">
+        <f t="shared" si="4"/>
+        <v>66.429942532459279</v>
+      </c>
+      <c r="HL59">
+        <f t="shared" si="4"/>
+        <v>71.300453073837588</v>
+      </c>
+      <c r="HM59">
+        <f t="shared" si="4"/>
+        <v>77.227638333097573</v>
+      </c>
+      <c r="HN59">
+        <f t="shared" si="4"/>
+        <v>81.094265201024385</v>
+      </c>
+      <c r="HO59">
+        <f t="shared" si="4"/>
+        <v>82.567730581609752</v>
+      </c>
+      <c r="HP59">
+        <f t="shared" si="4"/>
+        <v>56.92374889595294</v>
+      </c>
+      <c r="HQ59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HR59">
+        <f t="shared" si="4"/>
+        <v>73.243914878634143</v>
+      </c>
+      <c r="HS59">
+        <f t="shared" si="4"/>
+        <v>70.266709770819276</v>
+      </c>
+      <c r="HT59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="HU59">
+        <f t="shared" si="4"/>
+        <v>52.564462535295611</v>
+      </c>
+      <c r="HV59">
+        <f t="shared" si="4"/>
+        <v>74.395656895345653</v>
+      </c>
+      <c r="HW59">
+        <f t="shared" si="4"/>
+        <v>72.962682554612584</v>
+      </c>
+      <c r="HX59">
+        <f t="shared" si="4"/>
+        <v>59.935692657773664</v>
+      </c>
+      <c r="HY59">
+        <f t="shared" si="4"/>
+        <v>75.083014350680003</v>
+      </c>
+      <c r="HZ59">
+        <f t="shared" si="4"/>
+        <v>71.021324085680988</v>
+      </c>
+      <c r="IA59">
+        <f t="shared" si="4"/>
+        <v>67.65457766665439</v>
+      </c>
+      <c r="IB59">
+        <f t="shared" si="4"/>
+        <v>75.180875750935442</v>
+      </c>
+      <c r="IC59">
+        <f t="shared" si="4"/>
+        <v>68.5937410809222</v>
+      </c>
+      <c r="ID59">
+        <f t="shared" si="4"/>
+        <v>72.803761832880795</v>
+      </c>
+      <c r="IE59">
+        <f t="shared" si="4"/>
+        <v>72.854739494255369</v>
+      </c>
+      <c r="IF59">
+        <f t="shared" si="4"/>
+        <v>68.499150751134465</v>
+      </c>
+      <c r="IG59">
+        <f t="shared" si="4"/>
+        <v>59.913807071926584</v>
+      </c>
+      <c r="IH59">
+        <f t="shared" si="4"/>
+        <v>70.602972135156833</v>
+      </c>
+      <c r="II59">
+        <f t="shared" si="4"/>
+        <v>75.512148945214392</v>
+      </c>
+      <c r="IJ59">
+        <f t="shared" si="4"/>
+        <v>75.422179734558782</v>
+      </c>
+      <c r="IK59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IL59">
+        <f t="shared" si="4"/>
+        <v>64.916298385618532</v>
+      </c>
+      <c r="IM59">
+        <f t="shared" si="4"/>
+        <v>59.520658443868058</v>
+      </c>
+      <c r="IN59">
+        <f t="shared" si="4"/>
+        <v>71.20375080945611</v>
+      </c>
+      <c r="IO59">
+        <f t="shared" si="4"/>
+        <v>75.133574137899558</v>
+      </c>
+      <c r="IP59">
+        <f t="shared" si="4"/>
+        <v>77.147061244487091</v>
+      </c>
+      <c r="IQ59">
+        <f t="shared" si="4"/>
+        <v>78.757212494731718</v>
+      </c>
+      <c r="IR59">
+        <f t="shared" si="4"/>
+        <v>71.159912774871472</v>
+      </c>
+      <c r="IS59">
+        <f t="shared" si="4"/>
+        <v>73.079564940405618</v>
+      </c>
+      <c r="IT59">
+        <f t="shared" si="4"/>
+        <v>74.406391241476115</v>
+      </c>
+      <c r="IU59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="IV59">
+        <f t="shared" si="4"/>
+        <v>79.889146164585384</v>
+      </c>
+      <c r="IW59">
+        <f t="shared" si="4"/>
+        <v>75.906374119887559</v>
+      </c>
+      <c r="IX59">
+        <f t="shared" si="4"/>
+        <v>71.999300139361225</v>
+      </c>
+      <c r="IY59">
+        <f t="shared" si="5"/>
+        <v>71.903182691424291</v>
+      </c>
+      <c r="IZ59">
+        <f t="shared" si="5"/>
+        <v>74.853675806923675</v>
+      </c>
+      <c r="JA59">
+        <f t="shared" si="5"/>
+        <v>71.360611445170733</v>
+      </c>
+      <c r="JB59">
+        <f t="shared" si="5"/>
+        <v>64.738628710671463</v>
+      </c>
+      <c r="JC59">
+        <f t="shared" si="5"/>
+        <v>61.946484999828783</v>
+      </c>
+      <c r="JD59">
+        <f t="shared" si="5"/>
+        <v>61.351853896322687</v>
+      </c>
+      <c r="JE59">
+        <f t="shared" si="5"/>
+        <v>60.291397934500736</v>
       </c>
     </row>
   </sheetData>
